--- a/biology/Biologie cellulaire et moléculaire/BMP_(facteur_de_croissance)/BMP_(facteur_de_croissance).xlsx
+++ b/biology/Biologie cellulaire et moléculaire/BMP_(facteur_de_croissance)/BMP_(facteur_de_croissance).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les BMP (pour « Bone morphogenetic protein » ou protéine osseuse morphogénétique) est une famille de protéines, de type facteur de croissance de type TGF β.
 </t>
@@ -511,9 +523,11 @@
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ils interviennent dans l'embryogenèse[1] au niveau de nombreux tissus, dont l’œsophage[2]. Agissant avec FGF (ou facteur de croissance des fibroblastes), ils régulent les mouvements des cellules dans mésoderme de l'embryon en régulant l'expression des gènes homéotiques HOX. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ils interviennent dans l'embryogenèse au niveau de nombreux tissus, dont l’œsophage. Agissant avec FGF (ou facteur de croissance des fibroblastes), ils régulent les mouvements des cellules dans mésoderme de l'embryon en régulant l'expression des gènes homéotiques HOX. 
 </t>
         </is>
       </c>
